--- a/dobson_un/ErrorSourcesDobsonBE.xlsx
+++ b/dobson_un/ErrorSourcesDobsonBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aredondas/CODE/rbcce.aemet.es/campaigns/atmoz/dobson_un/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDCB67C0-B6CB-3F4C-BBC6-69367DD3CC50}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E6AE5-FAD9-5E44-99F9-98345DD8802B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="820" windowWidth="34420" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
   <si>
     <t>origin</t>
   </si>
@@ -395,6 +395,54 @@
   <si>
     <t>This is a very important part of the system, and often overlooked by users of the data.</t>
   </si>
+  <si>
+    <t>u_rel_wv</t>
+  </si>
+  <si>
+    <t>u_rel_xs</t>
+  </si>
+  <si>
+    <t>u_rel_temp</t>
+  </si>
+  <si>
+    <t>u_rel_btest</t>
+  </si>
+  <si>
+    <t>u_rel_beta1</t>
+  </si>
+  <si>
+    <t>u_rel_beta2</t>
+  </si>
+  <si>
+    <t>u_rel_P</t>
+  </si>
+  <si>
+    <t>u_rel_delta</t>
+  </si>
+  <si>
+    <t>u_rel_sec</t>
+  </si>
+  <si>
+    <t>u_rel_etc</t>
+  </si>
+  <si>
+    <t>u_rel_mu</t>
+  </si>
+  <si>
+    <t>u_rel_m</t>
+  </si>
+  <si>
+    <t>u_rel_wedge</t>
+  </si>
+  <si>
+    <t>u_rel_straylight</t>
+  </si>
+  <si>
+    <t>u_rel_interference</t>
+  </si>
+  <si>
+    <t>u_rel_operat_impre</t>
+  </si>
 </sst>
 </file>
 
@@ -403,7 +451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +495,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -505,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -549,6 +603,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,9 +943,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1415,18 +1473,109 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.32" right="0.42" top="0.54" bottom="0.6" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>